--- a/data/TKU.xlsx
+++ b/data/TKU.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TKU</t>
@@ -27636,7 +27636,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AD176"/>
+  <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27674,6 +27674,7 @@
     <col min="28" max="28" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27807,6 +27808,9 @@
       <c r="AD11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AE11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -27896,6 +27900,9 @@
       <c r="AD12" s="25" t="n">
         <v>4.11529602651E11</v>
       </c>
+      <c r="AE12" s="25" t="n">
+        <v>4.22266488227E11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -27985,6 +27992,9 @@
       <c r="AD13" s="25" t="n">
         <v>3.58126012E8</v>
       </c>
+      <c r="AE13" s="25" t="n">
+        <v>4.48909298E8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28074,6 +28084,9 @@
       <c r="AD14" s="25" t="n">
         <v>1.87871476639E11</v>
       </c>
+      <c r="AE14" s="25" t="n">
+        <v>1.63717578929E11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28163,6 +28176,9 @@
       <c r="AD15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28252,6 +28268,9 @@
       <c r="AD16" s="25" t="n">
         <v>2.233E11</v>
       </c>
+      <c r="AE16" s="25" t="n">
+        <v>2.581E11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28341,6 +28360,9 @@
       <c r="AD17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28430,6 +28452,9 @@
       <c r="AD18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28519,6 +28544,9 @@
       <c r="AD19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28608,6 +28636,9 @@
       <c r="AD20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28697,6 +28728,9 @@
       <c r="AD21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -28786,6 +28820,9 @@
       <c r="AD22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -28875,6 +28912,9 @@
       <c r="AD23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -28964,6 +29004,9 @@
       <c r="AD24" s="25" t="n">
         <v>4.275361534E9</v>
       </c>
+      <c r="AE24" s="25" t="n">
+        <v>1.1224046054E10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29053,6 +29096,9 @@
       <c r="AD25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29142,6 +29188,9 @@
       <c r="AD26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29231,6 +29280,9 @@
       <c r="AD27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29320,6 +29372,9 @@
       <c r="AD28" s="25" t="n">
         <v>4.275361534E9</v>
       </c>
+      <c r="AE28" s="25" t="n">
+        <v>1.1224046054E10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29409,6 +29464,9 @@
       <c r="AD29" s="25" t="n">
         <v>2.71557086964E11</v>
       </c>
+      <c r="AE29" s="25" t="n">
+        <v>2.32991336364E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29498,6 +29556,9 @@
       <c r="AD30" s="25" t="n">
         <v>1.5857276589E10</v>
       </c>
+      <c r="AE30" s="25" t="n">
+        <v>1.492575576E9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29587,6 +29648,9 @@
       <c r="AD31" s="25" t="n">
         <v>7.9353431366E10</v>
       </c>
+      <c r="AE31" s="25" t="n">
+        <v>4.8879700031E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -29676,6 +29740,9 @@
       <c r="AD32" s="25" t="n">
         <v>1.005176502E9</v>
       </c>
+      <c r="AE32" s="25" t="n">
+        <v>9.3358222E8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -29765,6 +29832,9 @@
       <c r="AD33" s="25" t="n">
         <v>1.22133198264E11</v>
       </c>
+      <c r="AE33" s="25" t="n">
+        <v>1.36236598591E11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -29854,6 +29924,9 @@
       <c r="AD34" s="25" t="n">
         <v>5.3208004243E10</v>
       </c>
+      <c r="AE34" s="25" t="n">
+        <v>4.5448879946E10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -29943,6 +30016,9 @@
       <c r="AD35" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE35" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -30032,6 +30108,9 @@
       <c r="AD36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30121,6 +30200,9 @@
       <c r="AD37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30210,6 +30292,9 @@
       <c r="AD38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30299,6 +30384,9 @@
       <c r="AD39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30388,6 +30476,9 @@
       <c r="AD40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30477,6 +30568,9 @@
       <c r="AD41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -30566,6 +30660,9 @@
       <c r="AD42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -30655,6 +30752,9 @@
       <c r="AD43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -30744,6 +30844,9 @@
       <c r="AD44" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE44" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -30833,6 +30936,9 @@
       <c r="AD45" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE45" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -30922,6 +31028,9 @@
       <c r="AD46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -31011,6 +31120,9 @@
       <c r="AD47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -31100,6 +31212,9 @@
       <c r="AD48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -31189,6 +31304,9 @@
       <c r="AD49" s="25" t="n">
         <v>5.92209628928E11</v>
       </c>
+      <c r="AE49" s="25" t="n">
+        <v>5.92209628928E11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -31278,6 +31396,9 @@
       <c r="AD50" s="25" t="n">
         <v>5.92694341655E11</v>
       </c>
+      <c r="AE50" s="25" t="n">
+        <v>5.92694341655E11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -31367,6 +31488,9 @@
       <c r="AD51" s="25" t="n">
         <v>1.4496E8</v>
       </c>
+      <c r="AE51" s="25" t="n">
+        <v>1.4496E8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -31456,6 +31580,9 @@
       <c r="AD52" s="25" t="n">
         <v>-6.29672727E8</v>
       </c>
+      <c r="AE52" s="25" t="n">
+        <v>-6.29672727E8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -31545,6 +31672,9 @@
       <c r="AD53" s="25" t="n">
         <v>3.92009191486E11</v>
       </c>
+      <c r="AE53" s="25" t="n">
+        <v>3.97532582964E11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -31634,6 +31764,9 @@
       <c r="AD54" s="25" t="n">
         <v>3.81384052899E11</v>
       </c>
+      <c r="AE54" s="25" t="n">
+        <v>3.81384052899E11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -31723,6 +31856,9 @@
       <c r="AD55" s="25" t="n">
         <v>1.1254811314E10</v>
       </c>
+      <c r="AE55" s="25" t="n">
+        <v>1.6778202792E10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -31812,6 +31948,9 @@
       <c r="AD56" s="25" t="n">
         <v>-6.29672727E8</v>
       </c>
+      <c r="AE56" s="25" t="n">
+        <v>-6.29672727E8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -31901,6 +32040,9 @@
       <c r="AD57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -31990,6 +32132,9 @@
       <c r="AD58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -32079,6 +32224,9 @@
       <c r="AD59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -32168,6 +32316,9 @@
       <c r="AD60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -32257,6 +32408,9 @@
       <c r="AD61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -32346,6 +32500,9 @@
       <c r="AD62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -32435,6 +32592,9 @@
       <c r="AD63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -32524,6 +32684,9 @@
       <c r="AD64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -32613,6 +32776,9 @@
       <c r="AD65" s="25" t="n">
         <v>5.47332919E8</v>
       </c>
+      <c r="AE65" s="25" t="n">
+        <v>5.47332919E8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -32702,6 +32868,9 @@
       <c r="AD66" s="25" t="n">
         <v>5.47332919E8</v>
       </c>
+      <c r="AE66" s="25" t="n">
+        <v>5.47332919E8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -32791,6 +32960,9 @@
       <c r="AD67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -32880,6 +33052,9 @@
       <c r="AD68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -32969,6 +33144,9 @@
       <c r="AD69" s="25" t="n">
         <v>4.840136E8</v>
       </c>
+      <c r="AE69" s="25" t="n">
+        <v>4.95187601E8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -33058,6 +33236,9 @@
       <c r="AD70" s="25" t="n">
         <v>4.61665598E8</v>
       </c>
+      <c r="AE70" s="25" t="n">
+        <v>4.61665598E8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -33147,6 +33328,9 @@
       <c r="AD71" s="25" t="n">
         <v>2.2348002E7</v>
       </c>
+      <c r="AE71" s="25" t="n">
+        <v>3.3522003E7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -33236,6 +33420,9 @@
       <c r="AD72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -33325,6 +33512,9 @@
       <c r="AD73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -33414,6 +33604,9 @@
       <c r="AD74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -33503,6 +33696,9 @@
       <c r="AD75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -33592,6 +33788,9 @@
       <c r="AD76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -33681,6 +33880,9 @@
       <c r="AD77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -33770,6 +33972,9 @@
       <c r="AD78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -33859,6 +34064,9 @@
       <c r="AD79" s="25" t="n">
         <v>3.40204288759E11</v>
       </c>
+      <c r="AE79" s="25" t="n">
+        <v>3.68640832456E11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -33948,6 +34156,9 @@
       <c r="AD80" s="25" t="n">
         <v>3.40204288759E11</v>
       </c>
+      <c r="AE80" s="25" t="n">
+        <v>3.68640832456E11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -34037,6 +34248,9 @@
       <c r="AD81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -34126,6 +34340,9 @@
       <c r="AD82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -34215,6 +34432,9 @@
       <c r="AD83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -34304,6 +34524,9 @@
       <c r="AD84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -34393,6 +34616,9 @@
       <c r="AD85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -34482,6 +34708,9 @@
       <c r="AD86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -34571,6 +34800,9 @@
       <c r="AD87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -34660,6 +34892,9 @@
       <c r="AD88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -34749,6 +34984,9 @@
       <c r="AD89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -34838,6 +35076,9 @@
       <c r="AD90" s="25" t="n">
         <v>5.266014245E9</v>
       </c>
+      <c r="AE90" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -34927,6 +35168,9 @@
       <c r="AD91" s="25" t="n">
         <v>9.51983491E8</v>
       </c>
+      <c r="AE91" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -35016,6 +35260,9 @@
       <c r="AD92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -35105,6 +35352,9 @@
       <c r="AD93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -35194,6 +35444,9 @@
       <c r="AD94" s="25" t="n">
         <v>4.310837727E9</v>
       </c>
+      <c r="AE94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -35283,6 +35536,9 @@
       <c r="AD95" s="25" t="n">
         <v>3193027.0</v>
       </c>
+      <c r="AE95" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -35372,6 +35628,9 @@
       <c r="AD96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -35461,6 +35720,9 @@
       <c r="AD97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -35550,6 +35812,9 @@
       <c r="AD98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -35639,6 +35904,9 @@
       <c r="AD99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -35728,6 +35996,9 @@
       <c r="AD100" s="25" t="n">
         <v>2.45723625E8</v>
       </c>
+      <c r="AE100" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -35817,6 +36088,9 @@
       <c r="AD101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -35906,6 +36180,9 @@
       <c r="AD102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -35995,6 +36272,9 @@
       <c r="AD103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -36084,6 +36364,9 @@
       <c r="AD104" s="25" t="n">
         <v>2.45723625E8</v>
       </c>
+      <c r="AE104" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -36173,6 +36456,9 @@
       <c r="AD105" s="25" t="n">
         <v>7.081158367E9</v>
       </c>
+      <c r="AE105" s="25" t="n">
+        <v>3.1857401067E10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -36262,6 +36548,9 @@
       <c r="AD106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -36351,6 +36640,9 @@
       <c r="AD107" s="25" t="n">
         <v>4.840818E7</v>
       </c>
+      <c r="AE107" s="25" t="n">
+        <v>3760000.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -36440,6 +36732,9 @@
       <c r="AD108" s="25" t="n">
         <v>8.48552169E8</v>
       </c>
+      <c r="AE108" s="25" t="n">
+        <v>201750.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -36529,6 +36824,9 @@
       <c r="AD109" s="25" t="n">
         <v>5.91549E7</v>
       </c>
+      <c r="AE109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -36618,6 +36916,9 @@
       <c r="AD110" s="25" t="n">
         <v>2.370633E7</v>
       </c>
+      <c r="AE110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -36707,6 +37008,9 @@
       <c r="AD111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -36796,6 +37100,9 @@
       <c r="AD112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -36885,6 +37192,9 @@
       <c r="AD113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -36974,6 +37284,9 @@
       <c r="AD114" s="25" t="n">
         <v>6.101336788E9</v>
       </c>
+      <c r="AE114" s="25" t="n">
+        <v>3.1853439317E10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -37063,6 +37376,9 @@
       <c r="AD115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -37152,6 +37468,9 @@
       <c r="AD116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -37241,6 +37560,9 @@
       <c r="AD117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -37330,6 +37652,9 @@
       <c r="AD118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -37419,6 +37744,9 @@
       <c r="AD119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -37508,6 +37836,9 @@
       <c r="AD120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -37597,6 +37928,9 @@
       <c r="AD121" s="25" t="n">
         <v>4.6881398E11</v>
       </c>
+      <c r="AE121" s="25" t="n">
+        <v>4.6881398E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -37686,6 +38020,9 @@
       <c r="AD122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -37775,6 +38112,9 @@
       <c r="AD123" s="25" t="n">
         <v>4.6881398E11</v>
       </c>
+      <c r="AE123" s="25" t="n">
+        <v>4.6881398E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -37864,6 +38204,9 @@
       <c r="AD124" s="25" t="n">
         <v>1.67828460529E11</v>
       </c>
+      <c r="AE124" s="25" t="n">
+        <v>1.4193336951E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -37953,6 +38296,9 @@
       <c r="AD125" s="25" t="n">
         <v>1.67828460529E11</v>
       </c>
+      <c r="AE125" s="25" t="n">
+        <v>1.08741122922E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -38042,6 +38388,9 @@
       <c r="AD126" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE126" s="25" t="n">
+        <v>3.3192246588E10</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -38131,6 +38480,9 @@
       <c r="AD127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -38220,6 +38572,9 @@
       <c r="AD128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -38309,6 +38664,9 @@
       <c r="AD129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -38398,6 +38756,9 @@
       <c r="AD130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -38487,6 +38848,9 @@
       <c r="AD131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -38576,6 +38940,9 @@
       <c r="AD132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -38665,6 +39032,9 @@
       <c r="AD133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -38754,6 +39124,9 @@
       <c r="AD134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -38843,6 +39216,9 @@
       <c r="AD135" s="25" t="n">
         <v>1.41411819428E11</v>
       </c>
+      <c r="AE135" s="25" t="n">
+        <v>1.29879321154E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -38932,6 +39308,9 @@
       <c r="AD136" s="25" t="n">
         <v>1.199746078E9</v>
       </c>
+      <c r="AE136" s="25" t="n">
+        <v>-1.549408426E9</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -39021,6 +39400,9 @@
       <c r="AD137" s="25" t="n">
         <v>1.3650618901E11</v>
       </c>
+      <c r="AE137" s="25" t="n">
+        <v>1.28902559658E11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -39110,6 +39492,9 @@
       <c r="AD138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE138" s="25" t="n">
+        <v>2.478174573E9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -39199,6 +39584,9 @@
       <c r="AD139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -39288,6 +39676,9 @@
       <c r="AD140" s="25" t="n">
         <v>3.70588434E9</v>
       </c>
+      <c r="AE140" s="25" t="n">
+        <v>4.7995349E7</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -39377,6 +39768,9 @@
       <c r="AD141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -39466,6 +39860,9 @@
       <c r="AD142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -39555,6 +39952,9 @@
       <c r="AD143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -39644,6 +40044,9 @@
       <c r="AD144" s="25" t="n">
         <v>3.575104519E9</v>
       </c>
+      <c r="AE144" s="25" t="n">
+        <v>5.725889533E9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -39733,6 +40136,9 @@
       <c r="AD145" s="25" t="n">
         <v>7.91847111E8</v>
       </c>
+      <c r="AE145" s="25" t="n">
+        <v>5.389846482E9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -39822,6 +40228,9 @@
       <c r="AD146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -39911,6 +40320,9 @@
       <c r="AD147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -40000,6 +40412,9 @@
       <c r="AD148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -40089,6 +40504,9 @@
       <c r="AD149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -40178,6 +40596,9 @@
       <c r="AD150" s="25" t="n">
         <v>2.783257408E9</v>
       </c>
+      <c r="AE150" s="25" t="n">
+        <v>3.36043051E8</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -40267,6 +40688,9 @@
       <c r="AD151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -40356,6 +40780,9 @@
       <c r="AD152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -40445,6 +40872,9 @@
       <c r="AD153" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -40534,6 +40964,9 @@
       <c r="AD154" s="25" t="n">
         <v>4.144422284E9</v>
       </c>
+      <c r="AE154" s="25" t="n">
+        <v>4.238521413E9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -40623,6 +41056,9 @@
       <c r="AD155" s="25" t="n">
         <v>2.823448476E9</v>
       </c>
+      <c r="AE155" s="25" t="n">
+        <v>2.462156052E9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -40712,6 +41148,9 @@
       <c r="AD156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -40801,6 +41240,9 @@
       <c r="AD157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -40890,6 +41332,9 @@
       <c r="AD158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -40979,6 +41424,9 @@
       <c r="AD159" s="25" t="n">
         <v>1.320973808E9</v>
       </c>
+      <c r="AE159" s="25" t="n">
+        <v>1.756182598E9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -41068,6 +41516,9 @@
       <c r="AD160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -41157,6 +41608,9 @@
       <c r="AD161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -41246,6 +41700,9 @@
       <c r="AD162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE162" s="25" t="n">
+        <v>2.0182763E7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -41335,6 +41792,9 @@
       <c r="AD163" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -41424,6 +41884,9 @@
       <c r="AD164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -41513,6 +41976,9 @@
       <c r="AD165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -41602,6 +42068,9 @@
       <c r="AD166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -41691,6 +42160,9 @@
       <c r="AD167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -41778,6 +42250,9 @@
         <v>0.0</v>
       </c>
       <c r="AD168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -41819,7 +42294,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:AD10"/>
+    <mergeCell ref="H10:AE10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/TKU.xlsx
+++ b/data/TKU.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TKU</t>

--- a/data/TKU.xlsx
+++ b/data/TKU.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TKU</t>

--- a/data/TKU.xlsx
+++ b/data/TKU.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TKU</t>
